--- a/market.xlsx
+++ b/market.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <r>
       <t>"u,9,1,bid</t>
@@ -352,13 +354,40 @@
   </si>
   <si>
     <t>ask</t>
+  </si>
+  <si>
+    <t>price &gt; bestBid</t>
+  </si>
+  <si>
+    <t>bestBid !0</t>
+  </si>
+  <si>
+    <t>bestAsk !0</t>
+  </si>
+  <si>
+    <t>sell</t>
+  </si>
+  <si>
+    <t>price   bestBid</t>
+  </si>
+  <si>
+    <t>price &lt;= bestBid</t>
+  </si>
+  <si>
+    <t>price &gt;= bestAsk</t>
+  </si>
+  <si>
+    <t>price &lt; bestAsk</t>
+  </si>
+  <si>
+    <t>price  bestAsk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,8 +420,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -408,6 +445,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -453,6 +496,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -846,7 +900,7 @@
       <c r="C10" s="5">
         <v>0</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="7">
         <v>2</v>
       </c>
       <c r="E10" s="6"/>
@@ -862,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="6">
+      <c r="E11" s="7">
         <v>6</v>
       </c>
       <c r="F11" s="5">
@@ -1023,4 +1077,542 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:F20"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F20" sqref="C2:F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="3.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6">
+      <c r="E3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="C4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:L35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:12">
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12">
+      <c r="I6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12">
+      <c r="C7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="3:12">
+      <c r="C9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="I9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12">
+      <c r="C10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10">
+        <v>13</v>
+      </c>
+      <c r="L10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12">
+      <c r="C11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="I11">
+        <v>12</v>
+      </c>
+      <c r="L11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12">
+      <c r="C12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="3:12">
+      <c r="C14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="L14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12">
+      <c r="C15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="K15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12">
+      <c r="C16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11">
+      <c r="C17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10">
+        <v>7</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="I18">
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11">
+      <c r="I19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11">
+      <c r="I20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11">
+      <c r="I21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11">
+      <c r="I22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11">
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11">
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11">
+      <c r="C25" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11">
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="3:11">
+      <c r="C27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="3:11">
+      <c r="C28" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0</v>
+      </c>
+      <c r="E28" s="10">
+        <v>1</v>
+      </c>
+      <c r="F28" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11">
+      <c r="C29" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0</v>
+      </c>
+      <c r="F29" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11">
+      <c r="C30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="10">
+        <v>1</v>
+      </c>
+      <c r="E30" s="10">
+        <v>1</v>
+      </c>
+      <c r="F30" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11">
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="3:11">
+      <c r="C32" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
+      <c r="F32" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
+      <c r="E33" s="10">
+        <v>1</v>
+      </c>
+      <c r="F33" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="10">
+        <v>1</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0</v>
+      </c>
+      <c r="F34" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="10">
+        <v>1</v>
+      </c>
+      <c r="E35" s="10">
+        <v>1</v>
+      </c>
+      <c r="F35" s="10">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/market.xlsx
+++ b/market.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
   <si>
     <r>
       <t>"u,9,1,bid</t>
@@ -482,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -505,6 +507,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1219,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1473,6 +1483,9 @@
       </c>
     </row>
     <row r="24" spans="3:11">
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
       <c r="I24">
         <v>0</v>
       </c>
@@ -1615,4 +1628,283 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:K40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:11">
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11">
+      <c r="C5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="J6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11">
+      <c r="C7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="H7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11">
+      <c r="C8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="H9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11">
+      <c r="C10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="K10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11">
+      <c r="C11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11">
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11">
+      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11">
+      <c r="H15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11">
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="J16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="12"/>
+      <c r="H19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="C21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="11">
+        <v>1</v>
+      </c>
+      <c r="E21" s="13">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="13"/>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0</v>
+      </c>
+      <c r="E23" s="13">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
+      <c r="E24" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7">
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="7:7">
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="7:7">
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="7:7">
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="7:7">
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="7:7">
+      <c r="G40" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>